--- a/data/pca/factorExposure/factorExposure_2019-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1326122401334049</v>
+        <v>0.07836638481459167</v>
       </c>
       <c r="C2">
-        <v>0.007854927749343871</v>
+        <v>-0.03980173647444558</v>
       </c>
       <c r="D2">
-        <v>-0.03864467235448588</v>
+        <v>-0.01105178136686719</v>
       </c>
       <c r="E2">
-        <v>0.1089553936077757</v>
+        <v>-0.03566490570922052</v>
       </c>
       <c r="F2">
-        <v>-0.1028257872093799</v>
+        <v>0.1437187858390941</v>
       </c>
       <c r="G2">
-        <v>0.01856539631194605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1098842382307774</v>
+      </c>
+      <c r="H2">
+        <v>-0.05196799006032327</v>
+      </c>
+      <c r="I2">
+        <v>-0.0202723550278825</v>
+      </c>
+      <c r="J2">
+        <v>-0.07793435956134431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.227435997655159</v>
+        <v>0.1694345581603943</v>
       </c>
       <c r="C3">
-        <v>-0.1015746515474131</v>
+        <v>-0.09238307557480821</v>
       </c>
       <c r="D3">
-        <v>0.06524461445290655</v>
+        <v>0.03664156568208163</v>
       </c>
       <c r="E3">
-        <v>0.3110944106117779</v>
+        <v>0.03023140729732453</v>
       </c>
       <c r="F3">
-        <v>-0.01016718620734702</v>
+        <v>0.36919934467798</v>
       </c>
       <c r="G3">
-        <v>0.1207767130043083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09072031865205758</v>
+      </c>
+      <c r="H3">
+        <v>-0.2810347565395792</v>
+      </c>
+      <c r="I3">
+        <v>-0.1732050635369312</v>
+      </c>
+      <c r="J3">
+        <v>-0.2856176245928538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1019781401557972</v>
+        <v>0.07464825016438036</v>
       </c>
       <c r="C4">
-        <v>-0.03122417217712803</v>
+        <v>-0.03871292197245155</v>
       </c>
       <c r="D4">
-        <v>-0.02210440872195435</v>
+        <v>0.02943073181861661</v>
       </c>
       <c r="E4">
-        <v>0.07640907953619809</v>
+        <v>-0.02951105700535754</v>
       </c>
       <c r="F4">
-        <v>-0.03555111483984775</v>
+        <v>0.08298721305719202</v>
       </c>
       <c r="G4">
-        <v>0.03893264978929804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04475107697675668</v>
+      </c>
+      <c r="H4">
+        <v>-0.02400556130204378</v>
+      </c>
+      <c r="I4">
+        <v>-0.02844539066313316</v>
+      </c>
+      <c r="J4">
+        <v>-0.06381353429892174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01721462806105549</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.00679988558460365</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009031942877937441</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.003566745156471763</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0009402333529896212</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0209786516235704</v>
+      </c>
+      <c r="H6">
+        <v>-0.003300262829033774</v>
+      </c>
+      <c r="I6">
+        <v>0.009800395690642137</v>
+      </c>
+      <c r="J6">
+        <v>-0.001191187804280765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04364365761233967</v>
+        <v>0.03557115596596727</v>
       </c>
       <c r="C7">
-        <v>-0.005635400543691304</v>
+        <v>-0.006769551856922931</v>
       </c>
       <c r="D7">
-        <v>-0.028986858082119</v>
+        <v>0.040921526434571</v>
       </c>
       <c r="E7">
-        <v>0.07447234750886646</v>
+        <v>-0.02487065889740781</v>
       </c>
       <c r="F7">
-        <v>0.05179842393448413</v>
+        <v>0.05586475103395364</v>
       </c>
       <c r="G7">
-        <v>0.0001539330075733055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005555005699571365</v>
+      </c>
+      <c r="H7">
+        <v>-0.04569226894792209</v>
+      </c>
+      <c r="I7">
+        <v>0.01137786407698278</v>
+      </c>
+      <c r="J7">
+        <v>-0.04911952424862172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04350965367283337</v>
+        <v>0.03012463876301736</v>
       </c>
       <c r="C8">
-        <v>-0.04324020487726299</v>
+        <v>-0.04107487733214527</v>
       </c>
       <c r="D8">
-        <v>0.0009863862349843791</v>
+        <v>0.02915652316201219</v>
       </c>
       <c r="E8">
-        <v>0.06969398568975758</v>
+        <v>-0.009197287502195135</v>
       </c>
       <c r="F8">
-        <v>-0.00536491212315493</v>
+        <v>0.07303025737878902</v>
       </c>
       <c r="G8">
-        <v>0.02199837176322569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02088623539946804</v>
+      </c>
+      <c r="H8">
+        <v>-0.04935414919231158</v>
+      </c>
+      <c r="I8">
+        <v>-0.02777823302729643</v>
+      </c>
+      <c r="J8">
+        <v>-0.06733815869150341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08841807040746248</v>
+        <v>0.06155958444871183</v>
       </c>
       <c r="C9">
-        <v>-0.03212844311473396</v>
+        <v>-0.03311077649462529</v>
       </c>
       <c r="D9">
-        <v>-0.02911256466472352</v>
+        <v>0.03203770514520591</v>
       </c>
       <c r="E9">
-        <v>0.06242007114835509</v>
+        <v>-0.02622295934284401</v>
       </c>
       <c r="F9">
-        <v>-0.0240408769430567</v>
+        <v>0.0831921584459664</v>
       </c>
       <c r="G9">
-        <v>0.05699691699988755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04307707603640068</v>
+      </c>
+      <c r="H9">
+        <v>-0.01992960837665891</v>
+      </c>
+      <c r="I9">
+        <v>-0.0115028008017534</v>
+      </c>
+      <c r="J9">
+        <v>-0.04001980331719956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.005066330947881404</v>
+        <v>0.02046444648780162</v>
       </c>
       <c r="C10">
-        <v>0.1576280860425574</v>
+        <v>0.1415634963928212</v>
       </c>
       <c r="D10">
-        <v>0.01658455533724671</v>
+        <v>-0.06531011340169578</v>
       </c>
       <c r="E10">
-        <v>0.06713231154807205</v>
+        <v>0.01474492976942824</v>
       </c>
       <c r="F10">
-        <v>-0.01679803178439264</v>
+        <v>0.0712377025430825</v>
       </c>
       <c r="G10">
-        <v>-0.02256527949633898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02343534285380109</v>
+      </c>
+      <c r="H10">
+        <v>0.001668073283835859</v>
+      </c>
+      <c r="I10">
+        <v>-0.1117535125211972</v>
+      </c>
+      <c r="J10">
+        <v>-0.0125216026982294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05829929426314622</v>
+        <v>0.04911608059540724</v>
       </c>
       <c r="C11">
-        <v>-0.005680894624585774</v>
+        <v>-0.02679604857196186</v>
       </c>
       <c r="D11">
-        <v>0.01063386653427512</v>
+        <v>0.001732699397987259</v>
       </c>
       <c r="E11">
-        <v>0.03900891400670355</v>
+        <v>-0.003386826758807446</v>
       </c>
       <c r="F11">
-        <v>-0.007618225573801498</v>
+        <v>0.03947964339444527</v>
       </c>
       <c r="G11">
-        <v>-0.02150295177775345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009186734496507906</v>
+      </c>
+      <c r="H11">
+        <v>-0.001425972879428383</v>
+      </c>
+      <c r="I11">
+        <v>0.01959958893115834</v>
+      </c>
+      <c r="J11">
+        <v>-0.04119353391583405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04563825664513782</v>
+        <v>0.04671656975373965</v>
       </c>
       <c r="C12">
-        <v>-0.01262041592548843</v>
+        <v>-0.02158378191159365</v>
       </c>
       <c r="D12">
-        <v>0.006389194081174348</v>
+        <v>0.01148724145892865</v>
       </c>
       <c r="E12">
-        <v>0.02772127783760828</v>
+        <v>-0.006449393870028189</v>
       </c>
       <c r="F12">
-        <v>0.001408546117444455</v>
+        <v>0.01731431884375129</v>
       </c>
       <c r="G12">
-        <v>-0.0003829569161415524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0004015398982683062</v>
+      </c>
+      <c r="H12">
+        <v>-0.00222738691979304</v>
+      </c>
+      <c r="I12">
+        <v>0.0169155360115265</v>
+      </c>
+      <c r="J12">
+        <v>-0.02484681932337926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06443055735503229</v>
+        <v>0.04214053847275185</v>
       </c>
       <c r="C13">
-        <v>-0.01676595545968028</v>
+        <v>-0.02968575719592181</v>
       </c>
       <c r="D13">
-        <v>0.01817830457627794</v>
+        <v>-0.00567058106179926</v>
       </c>
       <c r="E13">
-        <v>0.1054590577812913</v>
+        <v>-0.003012120342381123</v>
       </c>
       <c r="F13">
-        <v>-0.01607990702610345</v>
+        <v>0.1048582475591077</v>
       </c>
       <c r="G13">
-        <v>-0.00188889491415805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02329382002940886</v>
+      </c>
+      <c r="H13">
+        <v>-0.04790301192702888</v>
+      </c>
+      <c r="I13">
+        <v>-0.0008742317191082943</v>
+      </c>
+      <c r="J13">
+        <v>-0.06029013339514316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03817231827482572</v>
+        <v>0.02924569499762724</v>
       </c>
       <c r="C14">
-        <v>-0.008377913295423842</v>
+        <v>-0.01501916664934062</v>
       </c>
       <c r="D14">
-        <v>-0.02104345921701667</v>
+        <v>0.0119979271019209</v>
       </c>
       <c r="E14">
-        <v>0.01862037787203335</v>
+        <v>-0.02310901028633675</v>
       </c>
       <c r="F14">
-        <v>-0.001412797392433322</v>
+        <v>0.03784219091123366</v>
       </c>
       <c r="G14">
-        <v>-0.02290425959646211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02978995270310182</v>
+      </c>
+      <c r="H14">
+        <v>-0.05104644464464259</v>
+      </c>
+      <c r="I14">
+        <v>-0.008219651881745468</v>
+      </c>
+      <c r="J14">
+        <v>-0.01826229074442724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04885471095774873</v>
+        <v>0.04434116709690849</v>
       </c>
       <c r="C16">
-        <v>-0.02162974498346952</v>
+        <v>-0.03204801462312089</v>
       </c>
       <c r="D16">
-        <v>0.01427443550080939</v>
+        <v>0.01006862904009396</v>
       </c>
       <c r="E16">
-        <v>0.03297379634233685</v>
+        <v>0.0002146348886819496</v>
       </c>
       <c r="F16">
-        <v>0.004742593311659606</v>
+        <v>0.03326177728962129</v>
       </c>
       <c r="G16">
-        <v>-0.006308547802245639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00336335200819248</v>
+      </c>
+      <c r="H16">
+        <v>-0.008010182803853782</v>
+      </c>
+      <c r="I16">
+        <v>0.01732171717379663</v>
+      </c>
+      <c r="J16">
+        <v>-0.03376250846202809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05254824497961615</v>
+        <v>0.04743252817299113</v>
       </c>
       <c r="C19">
-        <v>-0.02969280202893193</v>
+        <v>-0.0421451783695817</v>
       </c>
       <c r="D19">
-        <v>0.01073947563715949</v>
+        <v>0.0139920849455305</v>
       </c>
       <c r="E19">
-        <v>0.07157485909169956</v>
+        <v>-0.01075256073557961</v>
       </c>
       <c r="F19">
-        <v>0.01559105840680566</v>
+        <v>0.08216295923882802</v>
       </c>
       <c r="G19">
-        <v>-0.02767978099798691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01196437896974384</v>
+      </c>
+      <c r="H19">
+        <v>-0.08366864279113624</v>
+      </c>
+      <c r="I19">
+        <v>-0.02887858283865244</v>
+      </c>
+      <c r="J19">
+        <v>-0.05197973162399867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03919483822300896</v>
+        <v>0.01913073228962673</v>
       </c>
       <c r="C20">
-        <v>-0.03683184067725633</v>
+        <v>-0.02772411000061131</v>
       </c>
       <c r="D20">
-        <v>-0.009496718924682472</v>
+        <v>0.01803729076469922</v>
       </c>
       <c r="E20">
-        <v>0.06195649989860166</v>
+        <v>-0.01503384530459314</v>
       </c>
       <c r="F20">
-        <v>0.01416789781872043</v>
+        <v>0.06807084155605791</v>
       </c>
       <c r="G20">
-        <v>-0.00824853739549637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01631259828308819</v>
+      </c>
+      <c r="H20">
+        <v>-0.07164279036052341</v>
+      </c>
+      <c r="I20">
+        <v>-0.01162613149175169</v>
+      </c>
+      <c r="J20">
+        <v>-0.08260029449837612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04139066876081015</v>
+        <v>0.02366033350113631</v>
       </c>
       <c r="C21">
-        <v>-0.01995912388910672</v>
+        <v>-0.02451064671164168</v>
       </c>
       <c r="D21">
-        <v>0.001867829403997495</v>
+        <v>0.02587434722865178</v>
       </c>
       <c r="E21">
-        <v>0.0931785321997991</v>
+        <v>-0.0003328497165783677</v>
       </c>
       <c r="F21">
-        <v>-0.04755537871185115</v>
+        <v>0.07788289501107731</v>
       </c>
       <c r="G21">
-        <v>-0.005930718147136254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03435428791330648</v>
+      </c>
+      <c r="H21">
+        <v>-0.02607160038938168</v>
+      </c>
+      <c r="I21">
+        <v>0.01399242003370287</v>
+      </c>
+      <c r="J21">
+        <v>-0.03020561693585838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05064383007444804</v>
+        <v>0.04329321962229445</v>
       </c>
       <c r="C24">
-        <v>-0.01426929172366861</v>
+        <v>-0.02180310177614832</v>
       </c>
       <c r="D24">
-        <v>0.005189292110875576</v>
+        <v>0.005926604865155321</v>
       </c>
       <c r="E24">
-        <v>0.0421929198778666</v>
+        <v>-0.004888408429369101</v>
       </c>
       <c r="F24">
-        <v>0.002375393413977226</v>
+        <v>0.03979559406564387</v>
       </c>
       <c r="G24">
-        <v>-0.001889187040649895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003023672851324801</v>
+      </c>
+      <c r="H24">
+        <v>-0.006408425650283243</v>
+      </c>
+      <c r="I24">
+        <v>0.01583063413460308</v>
+      </c>
+      <c r="J24">
+        <v>-0.04113444055817987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05047900983807583</v>
+        <v>0.0456450007417402</v>
       </c>
       <c r="C25">
-        <v>-0.004902849285260712</v>
+        <v>-0.02187559976694833</v>
       </c>
       <c r="D25">
-        <v>0.007611512915588516</v>
+        <v>0.005049069651008755</v>
       </c>
       <c r="E25">
-        <v>0.04097498072606335</v>
+        <v>-0.002981353122425778</v>
       </c>
       <c r="F25">
-        <v>-0.007405682563374193</v>
+        <v>0.04379438119795374</v>
       </c>
       <c r="G25">
-        <v>-0.009884991725552747</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003980329312656516</v>
+      </c>
+      <c r="H25">
+        <v>-0.001037139835355406</v>
+      </c>
+      <c r="I25">
+        <v>0.01683462659565558</v>
+      </c>
+      <c r="J25">
+        <v>-0.03214906246788755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01414675829250859</v>
+        <v>0.01645858378092484</v>
       </c>
       <c r="C26">
-        <v>-0.02577746374638867</v>
+        <v>-0.02361211664852847</v>
       </c>
       <c r="D26">
-        <v>-3.268097528046432e-05</v>
+        <v>0.004585229062920189</v>
       </c>
       <c r="E26">
-        <v>0.03590432447042728</v>
+        <v>0.002450554229072913</v>
       </c>
       <c r="F26">
-        <v>-0.01635881801740666</v>
+        <v>0.04351609849616592</v>
       </c>
       <c r="G26">
-        <v>-0.01701761594291067</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02061740506823238</v>
+      </c>
+      <c r="H26">
+        <v>-0.0298509755142205</v>
+      </c>
+      <c r="I26">
+        <v>0.009141955642087108</v>
+      </c>
+      <c r="J26">
+        <v>-0.03684956873099236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1133966776800958</v>
+        <v>0.08007905483348185</v>
       </c>
       <c r="C27">
-        <v>-0.02122108039068259</v>
+        <v>-0.02986483817974551</v>
       </c>
       <c r="D27">
-        <v>-0.01355622875796667</v>
+        <v>0.01347422938018557</v>
       </c>
       <c r="E27">
-        <v>0.1004741467869665</v>
+        <v>-0.02718960935176634</v>
       </c>
       <c r="F27">
-        <v>-0.01136632523676467</v>
+        <v>0.07311350451382982</v>
       </c>
       <c r="G27">
-        <v>0.01187179360395832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01728072317968538</v>
+      </c>
+      <c r="H27">
+        <v>-0.007532486990044517</v>
+      </c>
+      <c r="I27">
+        <v>-0.01117207796862969</v>
+      </c>
+      <c r="J27">
+        <v>-0.04613119043593406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.003998298256961122</v>
+        <v>0.03756326923925116</v>
       </c>
       <c r="C28">
-        <v>0.2442444261619209</v>
+        <v>0.2203949416532076</v>
       </c>
       <c r="D28">
-        <v>0.01829380583168574</v>
+        <v>-0.09084469837880346</v>
       </c>
       <c r="E28">
-        <v>0.04122870010031544</v>
+        <v>0.02502738731880984</v>
       </c>
       <c r="F28">
-        <v>-0.01948680407468924</v>
+        <v>0.05688632156008353</v>
       </c>
       <c r="G28">
-        <v>0.0003244785153500126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0265387498135671</v>
+      </c>
+      <c r="H28">
+        <v>0.009308664596352902</v>
+      </c>
+      <c r="I28">
+        <v>-0.1559310796636016</v>
+      </c>
+      <c r="J28">
+        <v>-0.02747198138861424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02252766263760589</v>
+        <v>0.02162020647866885</v>
       </c>
       <c r="C29">
-        <v>-0.0167247595679183</v>
+        <v>-0.01693865351587874</v>
       </c>
       <c r="D29">
-        <v>-0.02380479847754418</v>
+        <v>0.01700326048016387</v>
       </c>
       <c r="E29">
-        <v>0.02504461323511457</v>
+        <v>-0.02236134964833089</v>
       </c>
       <c r="F29">
-        <v>-0.01407948023537291</v>
+        <v>0.03764477091704484</v>
       </c>
       <c r="G29">
-        <v>-0.01719443895528261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03331648775079048</v>
+      </c>
+      <c r="H29">
+        <v>-0.04743169480664226</v>
+      </c>
+      <c r="I29">
+        <v>0.002418050113988934</v>
+      </c>
+      <c r="J29">
+        <v>-0.008849558401209885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1097389651646324</v>
+        <v>0.09391715861307932</v>
       </c>
       <c r="C30">
-        <v>-0.01065478904405496</v>
+        <v>-0.05582549902007714</v>
       </c>
       <c r="D30">
-        <v>-0.01539523963224156</v>
+        <v>-0.02075263646231294</v>
       </c>
       <c r="E30">
-        <v>0.1144754427971298</v>
+        <v>-0.02707626013373769</v>
       </c>
       <c r="F30">
-        <v>-0.00790170516725398</v>
+        <v>0.1002548464131571</v>
       </c>
       <c r="G30">
-        <v>-0.04107245203477162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01401655305949086</v>
+      </c>
+      <c r="H30">
+        <v>-0.01684072060324356</v>
+      </c>
+      <c r="I30">
+        <v>0.01653904048903771</v>
+      </c>
+      <c r="J30">
+        <v>-0.03302063845990176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05878196215836469</v>
+        <v>0.06286482675430412</v>
       </c>
       <c r="C31">
-        <v>-0.01465937536874925</v>
+        <v>-0.02516161289857397</v>
       </c>
       <c r="D31">
-        <v>-0.02017813891703728</v>
+        <v>-0.003252169032412852</v>
       </c>
       <c r="E31">
-        <v>-0.01670816102127232</v>
+        <v>-0.01920973695479416</v>
       </c>
       <c r="F31">
-        <v>-0.01262633134142353</v>
+        <v>0.002988962297051498</v>
       </c>
       <c r="G31">
-        <v>-0.05201327012310774</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04373005063912151</v>
+      </c>
+      <c r="H31">
+        <v>-0.02947290679612031</v>
+      </c>
+      <c r="I31">
+        <v>-0.006282687208865412</v>
+      </c>
+      <c r="J31">
+        <v>-0.01572219866603745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07157238711088956</v>
+        <v>0.0461292528061524</v>
       </c>
       <c r="C32">
-        <v>-0.02818595256586563</v>
+        <v>-0.04405324460670541</v>
       </c>
       <c r="D32">
-        <v>-0.00348426479459676</v>
+        <v>0.03248759534767641</v>
       </c>
       <c r="E32">
-        <v>0.1107331193813968</v>
+        <v>-0.02122684136709383</v>
       </c>
       <c r="F32">
-        <v>0.007180414135970304</v>
+        <v>0.08933543593482618</v>
       </c>
       <c r="G32">
-        <v>-0.02500380898959446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01323153175572827</v>
+      </c>
+      <c r="H32">
+        <v>-0.03714009077552625</v>
+      </c>
+      <c r="I32">
+        <v>-0.01228078474785736</v>
+      </c>
+      <c r="J32">
+        <v>-0.04845353443653713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07079316533763497</v>
+        <v>0.05795537133376588</v>
       </c>
       <c r="C33">
-        <v>-0.03490568569951764</v>
+        <v>-0.05429227058553672</v>
       </c>
       <c r="D33">
-        <v>-0.001122432306120663</v>
+        <v>-0.0003168011163268756</v>
       </c>
       <c r="E33">
-        <v>0.07256276365280206</v>
+        <v>-0.001698805828737445</v>
       </c>
       <c r="F33">
-        <v>-0.04735294013340871</v>
+        <v>0.07788644336497073</v>
       </c>
       <c r="G33">
-        <v>-0.01142786596076504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03692863077011887</v>
+      </c>
+      <c r="H33">
+        <v>-0.03605369843630799</v>
+      </c>
+      <c r="I33">
+        <v>0.0201058831121091</v>
+      </c>
+      <c r="J33">
+        <v>-0.04863099893896693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04968354016047224</v>
+        <v>0.04609134772119505</v>
       </c>
       <c r="C34">
-        <v>-0.01329146533917827</v>
+        <v>-0.02690686903317235</v>
       </c>
       <c r="D34">
-        <v>0.00446559394223427</v>
+        <v>0.0130295369659322</v>
       </c>
       <c r="E34">
-        <v>0.02272436619497605</v>
+        <v>-0.01144037671394293</v>
       </c>
       <c r="F34">
-        <v>0.004459080438899164</v>
+        <v>0.03187063188553452</v>
       </c>
       <c r="G34">
-        <v>-0.01151296993675663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00438605922078324</v>
+      </c>
+      <c r="H34">
+        <v>-0.01063941198939176</v>
+      </c>
+      <c r="I34">
+        <v>0.01558160202409732</v>
+      </c>
+      <c r="J34">
+        <v>-0.03006423870222689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01387648162900282</v>
+        <v>0.01591488097648122</v>
       </c>
       <c r="C36">
-        <v>0.008206209255062895</v>
+        <v>-0.001023585560873093</v>
       </c>
       <c r="D36">
-        <v>-0.006427481135100655</v>
+        <v>0.004942152500939185</v>
       </c>
       <c r="E36">
-        <v>0.02193417455563713</v>
+        <v>-0.007974170576556899</v>
       </c>
       <c r="F36">
-        <v>-0.006557098356297887</v>
+        <v>0.02783917278554176</v>
       </c>
       <c r="G36">
-        <v>-0.01675161319116131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02436535344915017</v>
+      </c>
+      <c r="H36">
+        <v>-0.02737762275750365</v>
+      </c>
+      <c r="I36">
+        <v>0.004884170390881288</v>
+      </c>
+      <c r="J36">
+        <v>-0.002394525453678682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05690047807737629</v>
+        <v>0.03453541471140142</v>
       </c>
       <c r="C38">
-        <v>-0.008516740818052605</v>
+        <v>-0.01242149957263103</v>
       </c>
       <c r="D38">
-        <v>-0.02110860898135623</v>
+        <v>0.007027091198043877</v>
       </c>
       <c r="E38">
-        <v>0.03740506618935044</v>
+        <v>-0.008497966317875067</v>
       </c>
       <c r="F38">
-        <v>-0.002201383795452575</v>
+        <v>0.05097814175856009</v>
       </c>
       <c r="G38">
-        <v>0.02540447939383241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02735860226589095</v>
+      </c>
+      <c r="H38">
+        <v>-0.01336145538356758</v>
+      </c>
+      <c r="I38">
+        <v>0.01012214235805724</v>
+      </c>
+      <c r="J38">
+        <v>-0.001042136753226157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07682374572029767</v>
+        <v>0.05807641957054406</v>
       </c>
       <c r="C39">
-        <v>-0.01082150205755474</v>
+        <v>-0.04034452106410705</v>
       </c>
       <c r="D39">
-        <v>0.0008415151885274533</v>
+        <v>0.008371801436862846</v>
       </c>
       <c r="E39">
-        <v>0.04085556063761582</v>
+        <v>-0.01126924818441204</v>
       </c>
       <c r="F39">
-        <v>-0.01984510800595307</v>
+        <v>0.05573885418690516</v>
       </c>
       <c r="G39">
-        <v>-0.009913635119780613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0177335945710282</v>
+      </c>
+      <c r="H39">
+        <v>7.240474007950783e-05</v>
+      </c>
+      <c r="I39">
+        <v>0.04027594339279859</v>
+      </c>
+      <c r="J39">
+        <v>-0.03902089163856268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07662774180847989</v>
+        <v>0.05717952997621099</v>
       </c>
       <c r="C40">
-        <v>-0.03088476044595154</v>
+        <v>-0.04738335043703354</v>
       </c>
       <c r="D40">
-        <v>0.002781307917962036</v>
+        <v>-0.005178638519936436</v>
       </c>
       <c r="E40">
-        <v>0.09897755289362259</v>
+        <v>-0.01709424829955383</v>
       </c>
       <c r="F40">
-        <v>-0.02906187519439814</v>
+        <v>0.09712969986921535</v>
       </c>
       <c r="G40">
-        <v>0.03539834310808326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02644326513078011</v>
+      </c>
+      <c r="H40">
+        <v>-0.05194275218745887</v>
+      </c>
+      <c r="I40">
+        <v>0.006277522854700806</v>
+      </c>
+      <c r="J40">
+        <v>-0.1161512997719758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003989064435172416</v>
+        <v>0.002626941426139004</v>
       </c>
       <c r="C41">
-        <v>-0.01254924693388509</v>
+        <v>-0.01065517820207038</v>
       </c>
       <c r="D41">
-        <v>-0.02127170456056648</v>
+        <v>0.004803339618365017</v>
       </c>
       <c r="E41">
-        <v>0.01395050757733028</v>
+        <v>-0.005211704796310444</v>
       </c>
       <c r="F41">
-        <v>-0.02983848136386742</v>
+        <v>0.01492251062474424</v>
       </c>
       <c r="G41">
-        <v>-0.02284421930849452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03890753598597427</v>
+      </c>
+      <c r="H41">
+        <v>-0.03073792750012501</v>
+      </c>
+      <c r="I41">
+        <v>-0.01741084442859158</v>
+      </c>
+      <c r="J41">
+        <v>-0.01498590091892754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1231497886880027</v>
+        <v>0.2141927411928488</v>
       </c>
       <c r="C42">
-        <v>-0.1868671679943209</v>
+        <v>-0.147092474245775</v>
       </c>
       <c r="D42">
-        <v>0.9258279498803593</v>
+        <v>-0.02264009288452226</v>
       </c>
       <c r="E42">
-        <v>-0.1172457936328296</v>
+        <v>0.9350051089695767</v>
       </c>
       <c r="F42">
-        <v>0.03894719834634595</v>
+        <v>-0.1688247341429169</v>
       </c>
       <c r="G42">
-        <v>-0.06993632347139761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.009999182709971376</v>
+      </c>
+      <c r="H42">
+        <v>-0.001857732111793893</v>
+      </c>
+      <c r="I42">
+        <v>-0.04274258637975675</v>
+      </c>
+      <c r="J42">
+        <v>-0.02812496267472617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.00819698428676062</v>
+        <v>0.004872894461482175</v>
       </c>
       <c r="C43">
-        <v>-0.01736852870460123</v>
+        <v>-0.01531996426382425</v>
       </c>
       <c r="D43">
-        <v>-0.01356629342324201</v>
+        <v>0.003806306159437959</v>
       </c>
       <c r="E43">
-        <v>0.03509378272074742</v>
+        <v>-0.005109482626884321</v>
       </c>
       <c r="F43">
-        <v>-0.006001562531706451</v>
+        <v>0.02784317278635036</v>
       </c>
       <c r="G43">
-        <v>-0.02038919600985252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02231257180132999</v>
+      </c>
+      <c r="H43">
+        <v>-0.03156943000415798</v>
+      </c>
+      <c r="I43">
+        <v>-0.009632564592575733</v>
+      </c>
+      <c r="J43">
+        <v>-0.0242443692010777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04106232051730413</v>
+        <v>0.02805343554415642</v>
       </c>
       <c r="C44">
-        <v>-0.03909168688988505</v>
+        <v>-0.03953195516463406</v>
       </c>
       <c r="D44">
-        <v>-0.003993877389811325</v>
+        <v>0.01713918328090157</v>
       </c>
       <c r="E44">
-        <v>0.1194761367976973</v>
+        <v>-0.002093946900997656</v>
       </c>
       <c r="F44">
-        <v>-0.08923621172867098</v>
+        <v>0.1228699401049583</v>
       </c>
       <c r="G44">
-        <v>-0.02453270799967192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06239261563115997</v>
+      </c>
+      <c r="H44">
+        <v>-0.1001871769739932</v>
+      </c>
+      <c r="I44">
+        <v>-0.02479068228959341</v>
+      </c>
+      <c r="J44">
+        <v>-0.03465136332455153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02535139520302997</v>
+        <v>0.02446496326563901</v>
       </c>
       <c r="C46">
-        <v>-0.01518617653098466</v>
+        <v>-0.03405152280624842</v>
       </c>
       <c r="D46">
-        <v>-0.02327951617585006</v>
+        <v>0.0111489722344926</v>
       </c>
       <c r="E46">
-        <v>0.02495951402598256</v>
+        <v>-0.02231073809862213</v>
       </c>
       <c r="F46">
-        <v>-0.02505774294722336</v>
+        <v>0.04699229708508588</v>
       </c>
       <c r="G46">
-        <v>-0.02695013125712807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02876466836646037</v>
+      </c>
+      <c r="H46">
+        <v>-0.05212217052509048</v>
+      </c>
+      <c r="I46">
+        <v>0.004136863935159225</v>
+      </c>
+      <c r="J46">
+        <v>-0.02020018483342264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08624727303656272</v>
+        <v>0.09191987967213343</v>
       </c>
       <c r="C47">
-        <v>-0.009688751009989279</v>
+        <v>-0.02013168919327446</v>
       </c>
       <c r="D47">
-        <v>-0.02039898898119865</v>
+        <v>-0.0007347471108711513</v>
       </c>
       <c r="E47">
-        <v>-0.02090826523119743</v>
+        <v>-0.02307188544308511</v>
       </c>
       <c r="F47">
-        <v>-0.01078509894336536</v>
+        <v>-0.01001927173242237</v>
       </c>
       <c r="G47">
-        <v>-0.03523666651580012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04773089260451707</v>
+      </c>
+      <c r="H47">
+        <v>-0.052319796833535</v>
+      </c>
+      <c r="I47">
+        <v>-0.01104046236882474</v>
+      </c>
+      <c r="J47">
+        <v>-0.02609487830187151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01773003068242599</v>
+        <v>0.0185786666433826</v>
       </c>
       <c r="C48">
-        <v>-0.02024269691942355</v>
+        <v>-0.01975640808277051</v>
       </c>
       <c r="D48">
-        <v>-0.01451027978119331</v>
+        <v>0.00936116045924412</v>
       </c>
       <c r="E48">
-        <v>0.03011353574263154</v>
+        <v>-0.009946423339755515</v>
       </c>
       <c r="F48">
-        <v>-0.00919682438834251</v>
+        <v>0.0305679730713329</v>
       </c>
       <c r="G48">
-        <v>-0.004059729780395196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01594541536083191</v>
+      </c>
+      <c r="H48">
+        <v>-0.02285506497722111</v>
+      </c>
+      <c r="I48">
+        <v>-0.008435723943731564</v>
+      </c>
+      <c r="J48">
+        <v>-0.01494348353318535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08762075598960924</v>
+        <v>0.08787449626240261</v>
       </c>
       <c r="C50">
-        <v>-0.03203629006733727</v>
+        <v>-0.03178707461064872</v>
       </c>
       <c r="D50">
-        <v>-0.02522102999812143</v>
+        <v>0.02122684971746281</v>
       </c>
       <c r="E50">
-        <v>-0.01358683239475404</v>
+        <v>-0.01933694670623959</v>
       </c>
       <c r="F50">
-        <v>-0.001415309300397823</v>
+        <v>-0.002646264277186694</v>
       </c>
       <c r="G50">
-        <v>-0.04229275989755262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007230212884703745</v>
+      </c>
+      <c r="H50">
+        <v>-0.04014525286692634</v>
+      </c>
+      <c r="I50">
+        <v>0.01498970734085481</v>
+      </c>
+      <c r="J50">
+        <v>-0.001813174019268546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06966597883286857</v>
+        <v>0.04695880756683084</v>
       </c>
       <c r="C51">
-        <v>0.02249215424635452</v>
+        <v>-0.005384676139416813</v>
       </c>
       <c r="D51">
-        <v>0.008240645584899913</v>
+        <v>-0.01315947078001107</v>
       </c>
       <c r="E51">
-        <v>0.08103693658859817</v>
+        <v>-0.007892571641284641</v>
       </c>
       <c r="F51">
-        <v>-0.0517389443193798</v>
+        <v>0.09454206999202562</v>
       </c>
       <c r="G51">
-        <v>-0.06110050120080276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05587632504151258</v>
+      </c>
+      <c r="H51">
+        <v>-0.04538246616618051</v>
+      </c>
+      <c r="I51">
+        <v>-0.01752367147547457</v>
+      </c>
+      <c r="J51">
+        <v>-0.04687502415774429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.145226124207351</v>
+        <v>0.1275138545413555</v>
       </c>
       <c r="C53">
-        <v>-0.008493190731668213</v>
+        <v>-0.03671850548176357</v>
       </c>
       <c r="D53">
-        <v>-0.04264149439300338</v>
+        <v>0.003807918554833724</v>
       </c>
       <c r="E53">
-        <v>-0.04046505016782994</v>
+        <v>-0.04486809523737684</v>
       </c>
       <c r="F53">
-        <v>0.003095278835526022</v>
+        <v>-0.03901203425662887</v>
       </c>
       <c r="G53">
-        <v>-0.03876766085656183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02677471097072048</v>
+      </c>
+      <c r="H53">
+        <v>0.003756502841399245</v>
+      </c>
+      <c r="I53">
+        <v>-0.02991956850147429</v>
+      </c>
+      <c r="J53">
+        <v>-0.03620751636461791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.0299475122735429</v>
+        <v>0.02543282202436864</v>
       </c>
       <c r="C54">
-        <v>0.003339452856941409</v>
+        <v>-0.004008504595369299</v>
       </c>
       <c r="D54">
-        <v>-0.02842596868532318</v>
+        <v>0.006546510167378327</v>
       </c>
       <c r="E54">
-        <v>0.03023318101444519</v>
+        <v>-0.02327583575450263</v>
       </c>
       <c r="F54">
-        <v>-0.04597976169889478</v>
+        <v>0.03882025012995684</v>
       </c>
       <c r="G54">
-        <v>-0.004547013986958319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0529245272577901</v>
+      </c>
+      <c r="H54">
+        <v>-0.04065935660283466</v>
+      </c>
+      <c r="I54">
+        <v>-0.02859202573853949</v>
+      </c>
+      <c r="J54">
+        <v>-0.003572230733562939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1004652911534031</v>
+        <v>0.1022086961949793</v>
       </c>
       <c r="C55">
-        <v>0.004822071177631707</v>
+        <v>-0.01812675351949408</v>
       </c>
       <c r="D55">
-        <v>-0.03816879466982275</v>
+        <v>0.01803881794918096</v>
       </c>
       <c r="E55">
-        <v>-0.008019486858860945</v>
+        <v>-0.03072202110922698</v>
       </c>
       <c r="F55">
-        <v>0.03998247971074174</v>
+        <v>-0.02956107250896913</v>
       </c>
       <c r="G55">
-        <v>0.02058168606458017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006143034279804955</v>
+      </c>
+      <c r="H55">
+        <v>-0.01424179824605387</v>
+      </c>
+      <c r="I55">
+        <v>-0.01098869569895603</v>
+      </c>
+      <c r="J55">
+        <v>-0.03521243307181392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1792722210744079</v>
+        <v>0.1701310920076794</v>
       </c>
       <c r="C56">
-        <v>0.01422920047209549</v>
+        <v>-0.01876882361491827</v>
       </c>
       <c r="D56">
-        <v>-0.08320072248224238</v>
+        <v>0.006074970983002055</v>
       </c>
       <c r="E56">
-        <v>-0.08526672307219765</v>
+        <v>-0.08394584018054978</v>
       </c>
       <c r="F56">
-        <v>0.07725132975534152</v>
+        <v>-0.08519595218058167</v>
       </c>
       <c r="G56">
-        <v>-0.003634947212703906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02606411691479288</v>
+      </c>
+      <c r="H56">
+        <v>0.04113086120418466</v>
+      </c>
+      <c r="I56">
+        <v>-0.02142246475666664</v>
+      </c>
+      <c r="J56">
+        <v>-0.04564640746977474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09792066493269058</v>
+        <v>0.07240035533416503</v>
       </c>
       <c r="C57">
-        <v>-0.0243790089083731</v>
+        <v>-0.03850755941849298</v>
       </c>
       <c r="D57">
-        <v>-0.01853317143738831</v>
+        <v>-0.004457025984873794</v>
       </c>
       <c r="E57">
-        <v>0.04554625110557225</v>
+        <v>-0.01021463581762191</v>
       </c>
       <c r="F57">
-        <v>-0.02600514425575592</v>
+        <v>0.05989257955191785</v>
       </c>
       <c r="G57">
-        <v>-0.02460322875195683</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02369983761502517</v>
+      </c>
+      <c r="H57">
+        <v>-0.02553312384587097</v>
+      </c>
+      <c r="I57">
+        <v>0.00781519442162518</v>
+      </c>
+      <c r="J57">
+        <v>-0.03821197055234128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1810435258015227</v>
+        <v>0.2023632228168777</v>
       </c>
       <c r="C58">
-        <v>-0.008360555625126756</v>
+        <v>-0.1075916520973211</v>
       </c>
       <c r="D58">
-        <v>0.04864986796969458</v>
+        <v>-0.05568864807784571</v>
       </c>
       <c r="E58">
-        <v>0.1187069497623418</v>
+        <v>0.01441764471929677</v>
       </c>
       <c r="F58">
-        <v>0.06602397415798056</v>
+        <v>0.2380957560689459</v>
       </c>
       <c r="G58">
-        <v>-0.02597612067328123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1477220152550262</v>
+      </c>
+      <c r="H58">
+        <v>-0.3817341944343804</v>
+      </c>
+      <c r="I58">
+        <v>0.00573957518066955</v>
+      </c>
+      <c r="J58">
+        <v>0.7621171946078897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.007948399541656746</v>
+        <v>0.0389026796769563</v>
       </c>
       <c r="C59">
-        <v>0.201845243363375</v>
+        <v>0.1748959101028988</v>
       </c>
       <c r="D59">
-        <v>-0.009126330573817022</v>
+        <v>-0.09184431456772481</v>
       </c>
       <c r="E59">
-        <v>0.05587147557300282</v>
+        <v>-0.009596726031692131</v>
       </c>
       <c r="F59">
-        <v>-0.01001649543186479</v>
+        <v>0.0718322573837977</v>
       </c>
       <c r="G59">
-        <v>-0.009164354699628213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00398486800637976</v>
+      </c>
+      <c r="H59">
+        <v>0.02150834136227026</v>
+      </c>
+      <c r="I59">
+        <v>-0.06216796186543294</v>
+      </c>
+      <c r="J59">
+        <v>0.003137006656112206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1861194551052839</v>
+        <v>0.1835652999550839</v>
       </c>
       <c r="C60">
-        <v>0.1063995609160227</v>
+        <v>0.02772867699896202</v>
       </c>
       <c r="D60">
-        <v>-0.002466842322966751</v>
+        <v>-0.06677697990041244</v>
       </c>
       <c r="E60">
-        <v>0.1884494101322515</v>
+        <v>-0.01146457233039898</v>
       </c>
       <c r="F60">
-        <v>-0.05581307443176273</v>
+        <v>0.2046633267658441</v>
       </c>
       <c r="G60">
-        <v>-0.01335196543754439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09374235568224099</v>
+      </c>
+      <c r="H60">
+        <v>0.2614247018163974</v>
+      </c>
+      <c r="I60">
+        <v>0.09275331921810306</v>
+      </c>
+      <c r="J60">
+        <v>-0.0008561472573361807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04955511593091585</v>
+        <v>0.03871220222219011</v>
       </c>
       <c r="C61">
-        <v>-0.001161376942467345</v>
+        <v>-0.02319656663229985</v>
       </c>
       <c r="D61">
-        <v>0.007984531725246234</v>
+        <v>0.008380978454382435</v>
       </c>
       <c r="E61">
-        <v>0.03937628768562533</v>
+        <v>-0.001619737976993342</v>
       </c>
       <c r="F61">
-        <v>-0.008890136843577773</v>
+        <v>0.03943582698264068</v>
       </c>
       <c r="G61">
-        <v>-0.005040833332414623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008932824289232486</v>
+      </c>
+      <c r="H61">
+        <v>0.00165894444780166</v>
+      </c>
+      <c r="I61">
+        <v>0.03974211556284794</v>
+      </c>
+      <c r="J61">
+        <v>-0.01727443523476267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04893613096530188</v>
+        <v>0.03240441660483347</v>
       </c>
       <c r="C63">
-        <v>0.002174709924203335</v>
+        <v>-0.01964784562902333</v>
       </c>
       <c r="D63">
-        <v>-0.01363777274890229</v>
+        <v>0.004980177975921382</v>
       </c>
       <c r="E63">
-        <v>0.03260601949234423</v>
+        <v>-0.01301282512783803</v>
       </c>
       <c r="F63">
-        <v>-0.004279316928394875</v>
+        <v>0.0279917638133932</v>
       </c>
       <c r="G63">
-        <v>-0.01658260410162981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01797498121246618</v>
+      </c>
+      <c r="H63">
+        <v>-0.03944863033607326</v>
+      </c>
+      <c r="I63">
+        <v>-0.02147246508266092</v>
+      </c>
+      <c r="J63">
+        <v>-0.0399549976298913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08174932404527907</v>
+        <v>0.0557021233047371</v>
       </c>
       <c r="C64">
-        <v>-0.04259181540730731</v>
+        <v>-0.0414763195433524</v>
       </c>
       <c r="D64">
-        <v>-0.05716884555797157</v>
+        <v>0.03151886163280614</v>
       </c>
       <c r="E64">
-        <v>0.06576599791807052</v>
+        <v>-0.03543568473149993</v>
       </c>
       <c r="F64">
-        <v>-0.05889168324443706</v>
+        <v>0.05647666029973879</v>
       </c>
       <c r="G64">
-        <v>0.03023570025353849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.056113305904281</v>
+      </c>
+      <c r="H64">
+        <v>0.005646906883286206</v>
+      </c>
+      <c r="I64">
+        <v>-0.008947363071729978</v>
+      </c>
+      <c r="J64">
+        <v>-0.09479080918711569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01910739496637737</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.00639220405923654</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009526448494119653</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003809172523335263</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002159059854284497</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02209697586511278</v>
+      </c>
+      <c r="H65">
+        <v>-0.0003572312703653451</v>
+      </c>
+      <c r="I65">
+        <v>0.0115881046790227</v>
+      </c>
+      <c r="J65">
+        <v>-0.002237620248025022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09625612425755635</v>
+        <v>0.06935750567798986</v>
       </c>
       <c r="C66">
-        <v>-0.02396561325803512</v>
+        <v>-0.0574009908238011</v>
       </c>
       <c r="D66">
-        <v>-0.03312462999972118</v>
+        <v>0.006895260552663356</v>
       </c>
       <c r="E66">
-        <v>0.079301690130028</v>
+        <v>-0.03864912618299305</v>
       </c>
       <c r="F66">
-        <v>-0.04406227870764805</v>
+        <v>0.07002671553944868</v>
       </c>
       <c r="G66">
-        <v>-0.01871820730615086</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01630486948555471</v>
+      </c>
+      <c r="H66">
+        <v>0.002889140900206949</v>
+      </c>
+      <c r="I66">
+        <v>0.05348578136556702</v>
+      </c>
+      <c r="J66">
+        <v>-0.06383351747534384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06393864611483899</v>
+        <v>0.04605213834361289</v>
       </c>
       <c r="C67">
-        <v>0.0163400108441612</v>
+        <v>0.002479248760200187</v>
       </c>
       <c r="D67">
-        <v>-0.006951865264800609</v>
+        <v>-0.003406695759786606</v>
       </c>
       <c r="E67">
-        <v>0.03113072762051072</v>
+        <v>-0.007271714097032897</v>
       </c>
       <c r="F67">
-        <v>-0.005784404376218068</v>
+        <v>0.04010615769866045</v>
       </c>
       <c r="G67">
-        <v>0.03466601516384633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03281014219677163</v>
+      </c>
+      <c r="H67">
+        <v>0.009265493133176907</v>
+      </c>
+      <c r="I67">
+        <v>0.03965988308618478</v>
+      </c>
+      <c r="J67">
+        <v>-0.007326836393343596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.005193160668810557</v>
+        <v>0.0436274091332977</v>
       </c>
       <c r="C68">
-        <v>0.2485032261783289</v>
+        <v>0.2158424777584032</v>
       </c>
       <c r="D68">
-        <v>0.007217786058473986</v>
+        <v>-0.1049261639324722</v>
       </c>
       <c r="E68">
-        <v>0.04092793739480278</v>
+        <v>0.003412038417131758</v>
       </c>
       <c r="F68">
-        <v>-0.005394242094786711</v>
+        <v>0.05560633783265985</v>
       </c>
       <c r="G68">
-        <v>-0.01847420132865453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.001986256123003718</v>
+      </c>
+      <c r="H68">
+        <v>0.01403457994686008</v>
+      </c>
+      <c r="I68">
+        <v>-0.1771040452650968</v>
+      </c>
+      <c r="J68">
+        <v>0.03286949089472852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07147450168784417</v>
+        <v>0.07218357594200839</v>
       </c>
       <c r="C69">
-        <v>-0.01353897217786805</v>
+        <v>-0.02318985453064665</v>
       </c>
       <c r="D69">
-        <v>-0.02261717057902969</v>
+        <v>0.001644186576520318</v>
       </c>
       <c r="E69">
-        <v>-0.01035451863476506</v>
+        <v>-0.02794923513798428</v>
       </c>
       <c r="F69">
-        <v>-0.002032266285101743</v>
+        <v>0.001086564653970647</v>
       </c>
       <c r="G69">
-        <v>-0.02828215191941947</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02961122352051294</v>
+      </c>
+      <c r="H69">
+        <v>-0.02607876195553075</v>
+      </c>
+      <c r="I69">
+        <v>0.01261018731294906</v>
+      </c>
+      <c r="J69">
+        <v>-0.02761619185943027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.007004679348312406</v>
+        <v>0.05069822436749544</v>
       </c>
       <c r="C71">
-        <v>0.2733653597597416</v>
+        <v>0.2241806938969993</v>
       </c>
       <c r="D71">
-        <v>0.01009786756461861</v>
+        <v>-0.1167706282404585</v>
       </c>
       <c r="E71">
-        <v>0.08234027629413217</v>
+        <v>0.02079072977249953</v>
       </c>
       <c r="F71">
-        <v>-0.02060969154537703</v>
+        <v>0.08291001973958101</v>
       </c>
       <c r="G71">
-        <v>-0.03677366245833882</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01420448293707892</v>
+      </c>
+      <c r="H71">
+        <v>0.0340349223055352</v>
+      </c>
+      <c r="I71">
+        <v>-0.1260128027760765</v>
+      </c>
+      <c r="J71">
+        <v>0.004607786357383864</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1164151712210458</v>
+        <v>0.1208531079940752</v>
       </c>
       <c r="C72">
-        <v>0.008639298970452923</v>
+        <v>-0.02973152483060804</v>
       </c>
       <c r="D72">
-        <v>-0.03434670019234357</v>
+        <v>0.002463459194754858</v>
       </c>
       <c r="E72">
-        <v>0.1010268045441326</v>
+        <v>-0.05510889917056717</v>
       </c>
       <c r="F72">
-        <v>0.01328477721728956</v>
+        <v>0.08728459644662322</v>
       </c>
       <c r="G72">
-        <v>0.02217793819220166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04722116479793825</v>
+      </c>
+      <c r="H72">
+        <v>-0.002002431429433523</v>
+      </c>
+      <c r="I72">
+        <v>0.04562932794367323</v>
+      </c>
+      <c r="J72">
+        <v>0.09458149336811975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2758984402066021</v>
+        <v>0.266448360307576</v>
       </c>
       <c r="C73">
-        <v>0.1763847406152038</v>
+        <v>0.04856356670166706</v>
       </c>
       <c r="D73">
-        <v>0.06913847976131873</v>
+        <v>-0.1240996763172749</v>
       </c>
       <c r="E73">
-        <v>0.3369651804819591</v>
+        <v>0.02995723799069205</v>
       </c>
       <c r="F73">
-        <v>-0.05736570880515914</v>
+        <v>0.3134891559043397</v>
       </c>
       <c r="G73">
-        <v>0.009244074645457276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2015802955154825</v>
+      </c>
+      <c r="H73">
+        <v>0.4525024326424698</v>
+      </c>
+      <c r="I73">
+        <v>0.3092166649420827</v>
+      </c>
+      <c r="J73">
+        <v>0.0197411232127894</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1593526690432567</v>
+        <v>0.1535296984809214</v>
       </c>
       <c r="C74">
-        <v>0.003891824667283779</v>
+        <v>-0.02875515338783698</v>
       </c>
       <c r="D74">
-        <v>-0.04048280778717879</v>
+        <v>-0.005417762001688104</v>
       </c>
       <c r="E74">
-        <v>-0.01844456872819707</v>
+        <v>-0.04667406787414812</v>
       </c>
       <c r="F74">
-        <v>0.05825611470126833</v>
+        <v>-0.05381456812586391</v>
       </c>
       <c r="G74">
-        <v>-0.05517028475617546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01844245009323602</v>
+      </c>
+      <c r="H74">
+        <v>0.03012653589874573</v>
+      </c>
+      <c r="I74">
+        <v>-0.001116444448346791</v>
+      </c>
+      <c r="J74">
+        <v>-0.08665267342117723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2342073404033126</v>
+        <v>0.2457103295613665</v>
       </c>
       <c r="C75">
-        <v>0.01552186924371446</v>
+        <v>-0.03019160054307004</v>
       </c>
       <c r="D75">
-        <v>-0.07145575869536347</v>
+        <v>-0.01964856361304234</v>
       </c>
       <c r="E75">
-        <v>-0.1221648825494695</v>
+        <v>-0.10614565010542</v>
       </c>
       <c r="F75">
-        <v>0.04059452594263088</v>
+        <v>-0.1412392709926677</v>
       </c>
       <c r="G75">
-        <v>-0.04613036137306418</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005226029797327716</v>
+      </c>
+      <c r="H75">
+        <v>0.02393804842436025</v>
+      </c>
+      <c r="I75">
+        <v>-0.0860812629683672</v>
+      </c>
+      <c r="J75">
+        <v>-0.03924309390872176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2477575805916407</v>
+        <v>0.2692641629472433</v>
       </c>
       <c r="C76">
-        <v>0.01429295881044059</v>
+        <v>-0.01793089291017396</v>
       </c>
       <c r="D76">
-        <v>-0.1119404860197126</v>
+        <v>0.01534833245161633</v>
       </c>
       <c r="E76">
-        <v>-0.1173992561271753</v>
+        <v>-0.1295392008237923</v>
       </c>
       <c r="F76">
-        <v>0.07275118722230418</v>
+        <v>-0.1764005867135068</v>
       </c>
       <c r="G76">
-        <v>-0.04219318601324364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04722342282793478</v>
+      </c>
+      <c r="H76">
+        <v>0.04488473288889375</v>
+      </c>
+      <c r="I76">
+        <v>-0.01484971144540816</v>
+      </c>
+      <c r="J76">
+        <v>-0.06984043633649216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1342253575801459</v>
+        <v>0.1293796749683995</v>
       </c>
       <c r="C77">
-        <v>-0.02020776151102606</v>
+        <v>-0.06286804998131434</v>
       </c>
       <c r="D77">
-        <v>0.05527552030469996</v>
+        <v>0.01248592443649997</v>
       </c>
       <c r="E77">
-        <v>0.143732655763168</v>
+        <v>0.04616380738336878</v>
       </c>
       <c r="F77">
-        <v>-0.002639028008101544</v>
+        <v>0.1600839978138381</v>
       </c>
       <c r="G77">
-        <v>0.061908563027116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01202934696123011</v>
+      </c>
+      <c r="H77">
+        <v>-0.1997739818058316</v>
+      </c>
+      <c r="I77">
+        <v>-0.1730921401666569</v>
+      </c>
+      <c r="J77">
+        <v>-0.1272347266138167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08646996300659467</v>
+        <v>0.08047185225758637</v>
       </c>
       <c r="C78">
-        <v>-0.04015365130845353</v>
+        <v>-0.06916524818658994</v>
       </c>
       <c r="D78">
-        <v>0.02199917782317078</v>
+        <v>0.03097997735187587</v>
       </c>
       <c r="E78">
-        <v>0.05141667956484582</v>
+        <v>0.002192527837404631</v>
       </c>
       <c r="F78">
-        <v>-0.01160776965104185</v>
+        <v>0.07431316279328362</v>
       </c>
       <c r="G78">
-        <v>-0.01703467189239437</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01003597242112486</v>
+      </c>
+      <c r="H78">
+        <v>-0.02671843924437617</v>
+      </c>
+      <c r="I78">
+        <v>-0.01841346219616411</v>
+      </c>
+      <c r="J78">
+        <v>-0.04697519779158884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07398523593045347</v>
+        <v>0.1517817901385525</v>
       </c>
       <c r="C80">
-        <v>-0.01595864035026101</v>
+        <v>0.408224889691308</v>
       </c>
       <c r="D80">
-        <v>0.01612852093308493</v>
+        <v>0.8820436431451879</v>
       </c>
       <c r="E80">
-        <v>-0.03421043814069143</v>
+        <v>0.0695877827605394</v>
       </c>
       <c r="F80">
-        <v>0.1633076534309877</v>
+        <v>0.04995040182385325</v>
       </c>
       <c r="G80">
-        <v>0.9282103938981878</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04309813282968686</v>
+      </c>
+      <c r="H80">
+        <v>0.05660451104037011</v>
+      </c>
+      <c r="I80">
+        <v>0.01413992695564679</v>
+      </c>
+      <c r="J80">
+        <v>0.1030159835763059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.162646944607239</v>
+        <v>0.1805550107678811</v>
       </c>
       <c r="C81">
-        <v>0.01152562882107236</v>
+        <v>-0.01098486608631825</v>
       </c>
       <c r="D81">
-        <v>-0.06056437376494039</v>
+        <v>-0.004309111062505778</v>
       </c>
       <c r="E81">
-        <v>-0.1524261427878316</v>
+        <v>-0.08587256720944673</v>
       </c>
       <c r="F81">
-        <v>0.09901868918492848</v>
+        <v>-0.1598637470250585</v>
       </c>
       <c r="G81">
-        <v>-0.04281298610963904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02784850978671182</v>
+      </c>
+      <c r="H81">
+        <v>0.01227315766102752</v>
+      </c>
+      <c r="I81">
+        <v>-0.05026675099508579</v>
+      </c>
+      <c r="J81">
+        <v>-0.01383401258641883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09412116874261733</v>
+        <v>0.06849787524405031</v>
       </c>
       <c r="C83">
-        <v>-0.04123417727368672</v>
+        <v>-0.04812172985171881</v>
       </c>
       <c r="D83">
-        <v>0.08321715681750115</v>
+        <v>0.001606375466053003</v>
       </c>
       <c r="E83">
-        <v>0.007859652075083531</v>
+        <v>0.04339941234022923</v>
       </c>
       <c r="F83">
-        <v>-0.06145833798008305</v>
+        <v>0.04670729424154806</v>
       </c>
       <c r="G83">
-        <v>-0.01545235869504198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0603975176391713</v>
+      </c>
+      <c r="H83">
+        <v>-0.01595410497896705</v>
+      </c>
+      <c r="I83">
+        <v>-0.01078458318199212</v>
+      </c>
+      <c r="J83">
+        <v>-0.08086659021429075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2348984881390638</v>
+        <v>0.2524535545959907</v>
       </c>
       <c r="C85">
-        <v>-0.04954240668208399</v>
+        <v>-0.05519737824237009</v>
       </c>
       <c r="D85">
-        <v>-0.07260874938657856</v>
+        <v>0.01290210955886081</v>
       </c>
       <c r="E85">
-        <v>-0.1447899375959955</v>
+        <v>-0.08737427689089038</v>
       </c>
       <c r="F85">
-        <v>0.06450187678650655</v>
+        <v>-0.1786034515575798</v>
       </c>
       <c r="G85">
-        <v>-0.02908896772328055</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.006881822076632327</v>
+      </c>
+      <c r="H85">
+        <v>-0.01569304141936211</v>
+      </c>
+      <c r="I85">
+        <v>-0.0466159488089784</v>
+      </c>
+      <c r="J85">
+        <v>-0.09335066265757182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04707354651570338</v>
+        <v>0.02660313815453464</v>
       </c>
       <c r="C86">
-        <v>-0.0465127212757567</v>
+        <v>-0.06092093597784431</v>
       </c>
       <c r="D86">
-        <v>-0.008877191462138277</v>
+        <v>0.0250342834367833</v>
       </c>
       <c r="E86">
-        <v>0.06467235706328081</v>
+        <v>-0.006241974672023099</v>
       </c>
       <c r="F86">
-        <v>-0.001669944044344767</v>
+        <v>0.0707480640428262</v>
       </c>
       <c r="G86">
-        <v>-0.03128679976874144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006258744498848552</v>
+      </c>
+      <c r="H86">
+        <v>-0.06378805665200897</v>
+      </c>
+      <c r="I86">
+        <v>-0.02100996401011222</v>
+      </c>
+      <c r="J86">
+        <v>-0.04327881257388905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02063126284219247</v>
+        <v>0.03434357691564439</v>
       </c>
       <c r="C87">
-        <v>0.05113598349461889</v>
+        <v>0.01140653345429033</v>
       </c>
       <c r="D87">
-        <v>-0.002416414186104419</v>
+        <v>-0.01043116825387347</v>
       </c>
       <c r="E87">
-        <v>0.09551063409301516</v>
+        <v>-0.002894308527137269</v>
       </c>
       <c r="F87">
-        <v>0.0149363721252184</v>
+        <v>0.1025726391877811</v>
       </c>
       <c r="G87">
-        <v>-0.03382142294550323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02119379376644671</v>
+      </c>
+      <c r="H87">
+        <v>-0.01827901425462448</v>
+      </c>
+      <c r="I87">
+        <v>0.01960722216270024</v>
+      </c>
+      <c r="J87">
+        <v>-0.01152887260558509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04084675613621488</v>
+        <v>0.02816140712239943</v>
       </c>
       <c r="C88">
-        <v>-0.03279566351904294</v>
+        <v>-0.01597601840473009</v>
       </c>
       <c r="D88">
-        <v>-0.008058719452320779</v>
+        <v>0.01917536258824955</v>
       </c>
       <c r="E88">
-        <v>-0.01094272478640676</v>
+        <v>-0.01428292205986007</v>
       </c>
       <c r="F88">
-        <v>0.01185873655972801</v>
+        <v>-0.01061009355747392</v>
       </c>
       <c r="G88">
-        <v>-0.01129194653157038</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04009646220095418</v>
+      </c>
+      <c r="H88">
+        <v>-0.03723565577368834</v>
+      </c>
+      <c r="I88">
+        <v>0.02730326767434855</v>
+      </c>
+      <c r="J88">
+        <v>-0.03479865828849756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01173574014907302</v>
+        <v>0.06496957952758874</v>
       </c>
       <c r="C89">
-        <v>0.4167545630952614</v>
+        <v>0.3485385512669391</v>
       </c>
       <c r="D89">
-        <v>0.08494868644085196</v>
+        <v>-0.1880600049728231</v>
       </c>
       <c r="E89">
-        <v>-0.01380037727911185</v>
+        <v>0.03544612873533419</v>
       </c>
       <c r="F89">
-        <v>-0.008230598999309911</v>
+        <v>0.03760940460226884</v>
       </c>
       <c r="G89">
-        <v>-0.03010966737405883</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04673803370922379</v>
+      </c>
+      <c r="H89">
+        <v>-0.03708440214894013</v>
+      </c>
+      <c r="I89">
+        <v>-0.2738070395522706</v>
+      </c>
+      <c r="J89">
+        <v>0.02357606032007254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.007491810718893567</v>
+        <v>0.04535858944183381</v>
       </c>
       <c r="C90">
-        <v>0.3101731994692751</v>
+        <v>0.3042825380293731</v>
       </c>
       <c r="D90">
-        <v>0.02771950212604092</v>
+        <v>-0.1454737265491812</v>
       </c>
       <c r="E90">
-        <v>0.04021290886562442</v>
+        <v>0.02353399977107209</v>
       </c>
       <c r="F90">
-        <v>-0.01565440338788199</v>
+        <v>0.03548518906359665</v>
       </c>
       <c r="G90">
-        <v>-0.03923360167773712</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02539235237568688</v>
+      </c>
+      <c r="H90">
+        <v>-0.001488829540998385</v>
+      </c>
+      <c r="I90">
+        <v>-0.2292786756011435</v>
+      </c>
+      <c r="J90">
+        <v>0.0002278024571662507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2902824003412084</v>
+        <v>0.3055259173051287</v>
       </c>
       <c r="C91">
-        <v>-0.01829243012568449</v>
+        <v>-0.04049666104016189</v>
       </c>
       <c r="D91">
-        <v>-0.08919610995727301</v>
+        <v>-0.0005485209588006924</v>
       </c>
       <c r="E91">
-        <v>-0.2948205168227829</v>
+        <v>-0.09768357140809425</v>
       </c>
       <c r="F91">
-        <v>0.1408919512209249</v>
+        <v>-0.297442177757984</v>
       </c>
       <c r="G91">
-        <v>0.03975966323952308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03365237219234153</v>
+      </c>
+      <c r="H91">
+        <v>0.009531447488515404</v>
+      </c>
+      <c r="I91">
+        <v>-0.1183821459137824</v>
+      </c>
+      <c r="J91">
+        <v>-0.08699479739466454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.0008225816019467903</v>
+        <v>0.1016684685028035</v>
       </c>
       <c r="C92">
-        <v>0.4302918174917683</v>
+        <v>0.4119685265988924</v>
       </c>
       <c r="D92">
-        <v>0.1908173570965243</v>
+        <v>-0.1711085580530361</v>
       </c>
       <c r="E92">
-        <v>-0.1563203380780144</v>
+        <v>0.05101622713920553</v>
       </c>
       <c r="F92">
-        <v>0.08037413090610851</v>
+        <v>-0.1168383952532414</v>
       </c>
       <c r="G92">
-        <v>0.1357011316717514</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1156999888037351</v>
+      </c>
+      <c r="H92">
+        <v>-0.4429116613309263</v>
+      </c>
+      <c r="I92">
+        <v>0.7080879265288764</v>
+      </c>
+      <c r="J92">
+        <v>-0.1802378562717296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01931708579046053</v>
+        <v>0.04978435948738587</v>
       </c>
       <c r="C93">
-        <v>0.3731146426925943</v>
+        <v>0.3638969817542244</v>
       </c>
       <c r="D93">
-        <v>0.06427285428796121</v>
+        <v>-0.1892197883407326</v>
       </c>
       <c r="E93">
-        <v>-0.03284938439670203</v>
+        <v>0.05143368561950466</v>
       </c>
       <c r="F93">
-        <v>0.01167282547315627</v>
+        <v>0.004622065608632447</v>
       </c>
       <c r="G93">
-        <v>0.03553766531793748</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03454122503052</v>
+      </c>
+      <c r="H93">
+        <v>0.02793836073320403</v>
+      </c>
+      <c r="I93">
+        <v>-0.1810689862493274</v>
+      </c>
+      <c r="J93">
+        <v>0.03239611356479638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2731966230896744</v>
+        <v>0.3044998543012613</v>
       </c>
       <c r="C94">
-        <v>0.07254073476541913</v>
+        <v>-0.001422183881880106</v>
       </c>
       <c r="D94">
-        <v>-0.0422613260692776</v>
+        <v>-0.04550011478381194</v>
       </c>
       <c r="E94">
-        <v>-0.3467266062045833</v>
+        <v>-0.1375522775688627</v>
       </c>
       <c r="F94">
-        <v>0.3924077369263517</v>
+        <v>-0.3350183311809682</v>
       </c>
       <c r="G94">
-        <v>-0.1672589083233761</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1862873050031217</v>
+      </c>
+      <c r="H94">
+        <v>-0.1530359339191152</v>
+      </c>
+      <c r="I94">
+        <v>-0.03145178975631602</v>
+      </c>
+      <c r="J94">
+        <v>0.1825029149696528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1966718610940378</v>
+        <v>0.1293399843181241</v>
       </c>
       <c r="C95">
-        <v>0.02947335198796576</v>
+        <v>-0.08518054062164133</v>
       </c>
       <c r="D95">
-        <v>-0.007493999466105091</v>
+        <v>-0.07131335985856352</v>
       </c>
       <c r="E95">
-        <v>-0.400943638495444</v>
+        <v>-0.02438203036378248</v>
       </c>
       <c r="F95">
-        <v>-0.8339456389022627</v>
+        <v>-0.06160788301598161</v>
       </c>
       <c r="G95">
-        <v>0.1115495132750331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8888854239563184</v>
+      </c>
+      <c r="H95">
+        <v>0.2114967981892593</v>
+      </c>
+      <c r="I95">
+        <v>0.06106521959176213</v>
+      </c>
+      <c r="J95">
+        <v>0.2763484834751427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2185955140029426</v>
+        <v>0.208410085350759</v>
       </c>
       <c r="C98">
-        <v>0.1242045678685436</v>
+        <v>0.03482406890672993</v>
       </c>
       <c r="D98">
-        <v>0.0566564742868514</v>
+        <v>-0.08814355439120621</v>
       </c>
       <c r="E98">
-        <v>0.09195443834049256</v>
+        <v>0.0268811882528544</v>
       </c>
       <c r="F98">
-        <v>-0.0592221605042775</v>
+        <v>0.1590863476072614</v>
       </c>
       <c r="G98">
-        <v>-0.05477966881845864</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.09773806003250658</v>
+      </c>
+      <c r="H98">
+        <v>0.3195624707643401</v>
+      </c>
+      <c r="I98">
+        <v>0.162090568085045</v>
+      </c>
+      <c r="J98">
+        <v>0.06879246453530354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02224999447378073</v>
+        <v>0.01535046736286661</v>
       </c>
       <c r="C101">
-        <v>-0.01710282943802924</v>
+        <v>-0.02887216409702154</v>
       </c>
       <c r="D101">
-        <v>-0.0253398994772829</v>
+        <v>0.01786695635266089</v>
       </c>
       <c r="E101">
-        <v>0.02562852420270047</v>
+        <v>-0.02836816667563099</v>
       </c>
       <c r="F101">
-        <v>-0.01386551465302622</v>
+        <v>0.06730817226911213</v>
       </c>
       <c r="G101">
-        <v>-0.01719521208214373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.0216883530954713</v>
+      </c>
+      <c r="H101">
+        <v>-0.1100511125418638</v>
+      </c>
+      <c r="I101">
+        <v>0.03147761617630735</v>
+      </c>
+      <c r="J101">
+        <v>0.1163742980798198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1187711835105172</v>
+        <v>0.1210681567873262</v>
       </c>
       <c r="C102">
-        <v>-0.01305783046369384</v>
+        <v>-0.02306045125390522</v>
       </c>
       <c r="D102">
-        <v>-0.04385976291675193</v>
+        <v>0.01065544178350278</v>
       </c>
       <c r="E102">
-        <v>-0.08131930137530551</v>
+        <v>-0.05276968298439231</v>
       </c>
       <c r="F102">
-        <v>0.002144513716946888</v>
+        <v>-0.09524715454590066</v>
       </c>
       <c r="G102">
-        <v>0.005436696434989485</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02148628239316712</v>
+      </c>
+      <c r="H102">
+        <v>0.023634220865213</v>
+      </c>
+      <c r="I102">
+        <v>-0.0416719302000207</v>
+      </c>
+      <c r="J102">
+        <v>-0.04274564008210365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01827391897404909</v>
+        <v>0.03115687208345095</v>
       </c>
       <c r="C103">
-        <v>-0.0002399088256994428</v>
+        <v>-0.005392120982303595</v>
       </c>
       <c r="D103">
-        <v>-0.01214003607911579</v>
+        <v>0.009452111750137644</v>
       </c>
       <c r="E103">
-        <v>-0.02758394960397081</v>
+        <v>-0.0193998041169197</v>
       </c>
       <c r="F103">
-        <v>0.009697243816064365</v>
+        <v>-0.02458883762800478</v>
       </c>
       <c r="G103">
-        <v>-0.02193889847087156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01661390827365258</v>
+      </c>
+      <c r="H103">
+        <v>-0.01219318146847861</v>
+      </c>
+      <c r="I103">
+        <v>-0.02841499306602197</v>
+      </c>
+      <c r="J103">
+        <v>-0.01365172877343885</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
